--- a/UnitTest/TestPlan-NguyenTrungNghia.xlsx
+++ b/UnitTest/TestPlan-NguyenTrungNghia.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\JavaLab\ISD.ICT.20201-10\UnitTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC390C28-21CF-4123-B1C4-DE8C67B25759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24041" windowHeight="9416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -30,7 +19,7 @@
     <t>5. Test Case Details</t>
   </si>
   <si>
-    <t>5.1. Test Case Specification for "Validate Supported Location"</t>
+    <t>5.1. Test Case Specification for "Validate Dock Controller"</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -42,16 +31,19 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Test the validation of rush shipping city</t>
+    <t>Test the validation of get dock station and get bike station</t>
   </si>
   <si>
     <t>Created By</t>
   </si>
   <si>
+    <t>Nguyen Trung Nghia</t>
+  </si>
+  <si>
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Do Minh Hieu</t>
+    <t>Vu Trung Dung</t>
   </si>
   <si>
     <t>Version</t>
@@ -75,6 +67,9 @@
     <t>Date Tested</t>
   </si>
   <si>
+    <t>28/11/2020</t>
+  </si>
+  <si>
     <t>Test Case (Pass/Fail/Not Executed)</t>
   </si>
   <si>
@@ -90,18 +85,27 @@
     <t>Prerequisites:</t>
   </si>
   <si>
-    <t>Java SDK &gt;8 and JUnit 5.4</t>
+    <t>Dart Language and Flutter Framework</t>
   </si>
   <si>
     <t>Test Scenario</t>
   </si>
   <si>
+    <t>Verify get all dock station from database</t>
+  </si>
+  <si>
     <t>Test Data</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>List&lt;DockStation&gt;</t>
+  </si>
+  <si>
+    <t>a valid dock station object: {id=&gt;'123',dockName=&gt;'abc',dockArea=&gt;'12x12',dockSize=&gt;'12',dockAddress=&gt;'abc123',lstBike}</t>
+  </si>
+  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -115,24 +119,6 @@
   </si>
   <si>
     <t>Pass / Fail / Not executed / Suspended</t>
-  </si>
-  <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Nguyen Trung Nghia</t>
-  </si>
-  <si>
-    <t>28/11/2020</t>
-  </si>
-  <si>
-    <t>Verify get all dock station from database</t>
-  </si>
-  <si>
-    <t>List&lt;DockStation&gt;</t>
-  </si>
-  <si>
-    <t>a valid dock station object: {id=&gt;'123',dockName=&gt;'abc',dockArea=&gt;'12x12',dockSize=&gt;'12',dockAddress=&gt;'abc123',lstBike}</t>
   </si>
   <si>
     <t>User see the home page</t>
@@ -142,6 +128,9 @@
 </t>
   </si>
   <si>
+    <t>As Expected</t>
+  </si>
+  <si>
     <t>Verify get all bikes from dockStation</t>
   </si>
   <si>
@@ -155,31 +144,35 @@
   </si>
   <si>
     <t>User click to a row in list dock station</t>
-  </si>
-  <si>
-    <t>User click to the view detail button</t>
-  </si>
-  <si>
-    <t>The list bike in dock should be appeared</t>
   </si>
   <si>
     <t xml:space="preserve">the view detail button should be appeared
 </t>
+  </si>
+  <si>
+    <t>User click to the view detail button</t>
+  </si>
+  <si>
+    <t>The list bike in dock should be appeared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +192,124 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -206,47 +317,80 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,23 +399,369 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -291,84 +781,27 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -376,226 +809,379 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C013DA76-3564-4125-B0E8-7EC40BEE0135}"/>
-    <cellStyle name="Note 2" xfId="1" xr:uid="{74C255D7-F6B5-4666-BE7A-24BAC2B5820C}"/>
+    <cellStyle name="Note 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="10" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="18" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="21" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="22" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="24" builtinId="32"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="26" builtinId="42"/>
+    <cellStyle name="Total" xfId="27" builtinId="25"/>
+    <cellStyle name="Output" xfId="28" builtinId="21"/>
+    <cellStyle name="Currency" xfId="29" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="30" builtinId="38"/>
+    <cellStyle name="Note" xfId="31" builtinId="10"/>
+    <cellStyle name="Input" xfId="32" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="33" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
+    <cellStyle name="Good" xfId="35" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="36" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="37" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="39" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="42" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="48" builtinId="40"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -644,7 +1230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -679,7 +1265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -853,39 +1439,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="6" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="4.94690265486726" customWidth="1"/>
+    <col min="3" max="3" width="20.3274336283186" customWidth="1"/>
+    <col min="4" max="4" width="16.8053097345133" customWidth="1"/>
+    <col min="5" max="5" width="12.7610619469027" customWidth="1"/>
+    <col min="6" max="6" width="8.21238938053097" customWidth="1"/>
+    <col min="8" max="8" width="7.94690265486726" customWidth="1"/>
+    <col min="9" max="9" width="7.42477876106195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
+    <row r="1" ht="17.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -910,29 +1492,29 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="15.05" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="I4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6"/>
@@ -947,103 +1529,103 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11"/>
+    <row r="8" ht="15.05" spans="1:9">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="16" t="s">
-        <v>18</v>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="19">
+    <row r="10" ht="15.05" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="19">
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1051,12 +1633,12 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="22"/>
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1066,161 +1648,161 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="7:10">
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A17" s="38">
+    <row r="17" ht="14.4" customHeight="1" spans="1:10">
+      <c r="A17" s="20">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="39"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="C20" s="23"/>
+    <row r="20" spans="3:3">
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="A21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="25"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <v>1</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="41" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="6"/>
@@ -1231,173 +1813,207 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="7:10">
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" ht="15.05" spans="1:10">
       <c r="A30" s="36">
         <v>1</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="47" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="50" t="s">
+    <row r="31" ht="14.4" customHeight="1" spans="1:10">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="37"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="C33" s="23"/>
+    <row r="33" spans="3:3">
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="A34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="25"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="19">
+      <c r="A36" s="14">
         <v>1</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="41" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="14">
+        <v>2</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="19">
-        <v>2</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="19">
+      <c r="A38" s="14">
         <v>3</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="D31:F32"/>
+  <mergeCells count="57">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:G37"/>
@@ -1406,54 +2022,22 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="D31:F32"/>
     <mergeCell ref="B34:C35"/>
     <mergeCell ref="D34:E35"/>
     <mergeCell ref="F34:G35"/>
     <mergeCell ref="H34:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="H21:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="D21:E22"/>
     <mergeCell ref="F21:G22"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B17:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>